--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H2">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I2">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J2">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N2">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O2">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P2">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q2">
-        <v>653.9623877027329</v>
+        <v>152.5474347020053</v>
       </c>
       <c r="R2">
-        <v>3923.774326216398</v>
+        <v>915.284608212032</v>
       </c>
       <c r="S2">
-        <v>0.0725670470400764</v>
+        <v>0.009460565780866802</v>
       </c>
       <c r="T2">
-        <v>0.05188390137494964</v>
+        <v>0.006446332435701936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H3">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I3">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J3">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N3">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O3">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P3">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q3">
-        <v>3.498525787441667</v>
+        <v>679.4558647569421</v>
       </c>
       <c r="R3">
-        <v>20.99115472465</v>
+        <v>4076.735188541652</v>
       </c>
       <c r="S3">
-        <v>0.0003882145061584232</v>
+        <v>0.04213795476984371</v>
       </c>
       <c r="T3">
-        <v>0.0002775651479758381</v>
+        <v>0.02871236994687401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H4">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I4">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J4">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N4">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O4">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P4">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q4">
-        <v>1052.319987562931</v>
+        <v>163.8919988759213</v>
       </c>
       <c r="R4">
-        <v>6313.919925377583</v>
+        <v>983.351993255528</v>
       </c>
       <c r="S4">
-        <v>0.1167708655339425</v>
+        <v>0.01016412396152224</v>
       </c>
       <c r="T4">
-        <v>0.08348869518535944</v>
+        <v>0.006925729759859335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>65.250653</v>
       </c>
       <c r="I5">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J5">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N5">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O5">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P5">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q5">
-        <v>478.1557629237697</v>
+        <v>159.1894370982702</v>
       </c>
       <c r="R5">
-        <v>4303.401866313927</v>
+        <v>1432.704933884432</v>
       </c>
       <c r="S5">
-        <v>0.05305863516472661</v>
+        <v>0.009872484216003312</v>
       </c>
       <c r="T5">
-        <v>0.05690370022475451</v>
+        <v>0.01009051414524595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>65.250653</v>
       </c>
       <c r="I6">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J6">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N6">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O6">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P6">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q6">
-        <v>2.55800684941389</v>
+        <v>709.0397610098531</v>
       </c>
       <c r="R6">
-        <v>23.022061644725</v>
+        <v>6381.357849088678</v>
       </c>
       <c r="S6">
-        <v>0.0002838496630094183</v>
+        <v>0.04397266537708361</v>
       </c>
       <c r="T6">
-        <v>0.0003044197439802116</v>
+        <v>0.04494378438938193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>65.250653</v>
       </c>
       <c r="I7">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J7">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N7">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O7">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P7">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q7">
-        <v>769.4217220361129</v>
+        <v>171.0279500729309</v>
       </c>
       <c r="R7">
-        <v>6924.795498325016</v>
+        <v>1539.251550656378</v>
       </c>
       <c r="S7">
-        <v>0.08537901161684476</v>
+        <v>0.0106066757215059</v>
       </c>
       <c r="T7">
-        <v>0.09156627695845106</v>
+        <v>0.01084091998125471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H8">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I8">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J8">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N8">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O8">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P8">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q8">
-        <v>681.5899438691437</v>
+        <v>279.2215409322044</v>
       </c>
       <c r="R8">
-        <v>6134.309494822293</v>
+        <v>2512.99386838984</v>
       </c>
       <c r="S8">
-        <v>0.07563274348627874</v>
+        <v>0.01731654000333961</v>
       </c>
       <c r="T8">
-        <v>0.08111371408550885</v>
+        <v>0.01769896897552631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H9">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I9">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J9">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N9">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O9">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P9">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q9">
-        <v>3.64632590486389</v>
+        <v>1243.670297854985</v>
       </c>
       <c r="R9">
-        <v>32.816933143775</v>
+        <v>11193.03268069487</v>
       </c>
       <c r="S9">
-        <v>0.0004046151712045949</v>
+        <v>0.07712895785859207</v>
       </c>
       <c r="T9">
-        <v>0.000433936914078793</v>
+        <v>0.07883232054386316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H10">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I10">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J10">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N10">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O10">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P10">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q10">
-        <v>1096.776717962305</v>
+        <v>299.9865357420678</v>
       </c>
       <c r="R10">
-        <v>9870.990461660744</v>
+        <v>2699.87882167861</v>
       </c>
       <c r="S10">
-        <v>0.1217040141473851</v>
+        <v>0.01860432697741638</v>
       </c>
       <c r="T10">
-        <v>0.1305236879103912</v>
+        <v>0.01901519621820158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H11">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I11">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J11">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N11">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O11">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P11">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q11">
-        <v>44.7687044639545</v>
+        <v>7.556903119026666</v>
       </c>
       <c r="R11">
-        <v>268.612226783727</v>
+        <v>45.34141871416</v>
       </c>
       <c r="S11">
-        <v>0.004967766868323041</v>
+        <v>0.0004686580223184145</v>
       </c>
       <c r="T11">
-        <v>0.003551848073788504</v>
+        <v>0.0003193387668878206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H12">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I12">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J12">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N12">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O12">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P12">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q12">
-        <v>0.2395007266208334</v>
+        <v>33.6589215915225</v>
       </c>
       <c r="R12">
-        <v>1.437004359725</v>
+        <v>201.953529549135</v>
       </c>
       <c r="S12">
-        <v>2.657623866699614E-05</v>
+        <v>0.002087432295742503</v>
       </c>
       <c r="T12">
-        <v>1.900144765645544E-05</v>
+        <v>0.001422354944414725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H13">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I13">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J13">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N13">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O13">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P13">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q13">
-        <v>72.03931512056934</v>
+        <v>8.118890756231666</v>
       </c>
       <c r="R13">
-        <v>432.235890723416</v>
+        <v>48.71334453738999</v>
       </c>
       <c r="S13">
-        <v>0.007993854795614867</v>
+        <v>0.0005035109257461108</v>
       </c>
       <c r="T13">
-        <v>0.005715436837223043</v>
+        <v>0.0003430871776117045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H14">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I14">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J14">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N14">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O14">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P14">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q14">
-        <v>386.286347557511</v>
+        <v>1753.795937122834</v>
       </c>
       <c r="R14">
-        <v>3476.577128017599</v>
+        <v>15784.16343410551</v>
       </c>
       <c r="S14">
-        <v>0.04286432993893733</v>
+        <v>0.1087655250432697</v>
       </c>
       <c r="T14">
-        <v>0.0459706318039971</v>
+        <v>0.1111675688663211</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H15">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I15">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J15">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N15">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O15">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P15">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q15">
-        <v>2.066529778591667</v>
+        <v>7811.517364371267</v>
       </c>
       <c r="R15">
-        <v>18.598768007325</v>
+        <v>70303.65627934141</v>
       </c>
       <c r="S15">
-        <v>0.0002293128266589963</v>
+        <v>0.4844484865863573</v>
       </c>
       <c r="T15">
-        <v>0.0002459307199550702</v>
+        <v>0.4951473407897312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H16">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I16">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J16">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N16">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O16">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P16">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q16">
-        <v>621.5905564315548</v>
+        <v>1884.221273973035</v>
       </c>
       <c r="R16">
-        <v>5594.315007883992</v>
+        <v>16957.99146575732</v>
       </c>
       <c r="S16">
-        <v>0.06897490130386497</v>
+        <v>0.116854140110271</v>
       </c>
       <c r="T16">
-        <v>0.07397338990424038</v>
+        <v>0.1194348178143339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H17">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I17">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J17">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N17">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O17">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P17">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q17">
-        <v>1202.112609431735</v>
+        <v>117.5867882565796</v>
       </c>
       <c r="R17">
-        <v>10819.01348488562</v>
+        <v>1058.281094309216</v>
       </c>
       <c r="S17">
-        <v>0.1333926291732773</v>
+        <v>0.007292404145866657</v>
       </c>
       <c r="T17">
-        <v>0.1430593561086209</v>
+        <v>0.007453454021981398</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H18">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I18">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J18">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N18">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O18">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P18">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q18">
-        <v>6.430984476461112</v>
+        <v>523.7389475276141</v>
       </c>
       <c r="R18">
-        <v>57.87886028815</v>
+        <v>4713.650527748527</v>
       </c>
       <c r="S18">
-        <v>0.0007136152809287999</v>
+        <v>0.03248082653612663</v>
       </c>
       <c r="T18">
-        <v>0.0007653297129808604</v>
+        <v>0.03319815280948088</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.68136733333333</v>
+        <v>16.06600466666667</v>
       </c>
       <c r="H19">
-        <v>164.044102</v>
+        <v>48.198014</v>
       </c>
       <c r="I19">
-        <v>0.3487542616983074</v>
+        <v>0.04760795235012129</v>
       </c>
       <c r="J19">
-        <v>0.37402786366769</v>
+        <v>0.04865935524479072</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N19">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O19">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P19">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q19">
-        <v>1934.372908891927</v>
+        <v>126.3314182006182</v>
       </c>
       <c r="R19">
-        <v>17409.35618002734</v>
+        <v>1136.982763805564</v>
       </c>
       <c r="S19">
-        <v>0.2146480172441012</v>
+        <v>0.007834721668127998</v>
       </c>
       <c r="T19">
-        <v>0.2302031778460883</v>
+        <v>0.008007748413328438</v>
       </c>
     </row>
   </sheetData>
